--- a/biology/Médecine/Bradypsychie/Bradypsychie.xlsx
+++ b/biology/Médecine/Bradypsychie/Bradypsychie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bradypsychie (du grec ancien βραδύς / bradýs = lent) est le symptôme du ralentissement du cours de la pensée, présent dans les manifestations du pôle dépressif. La bradypsychie s'associe à une certaine asthénie générale et psychomotrice. Elle est l'opposé de la tachypsychie.
 </t>
@@ -511,7 +523,9 @@
           <t>Hypothèse psychanalytique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La dépression traduit avant tout une perte d'un objet inconscient et difficilement déterminé auquel le sujet reste psychiquement attaché. Il faut comprendre que cette perte ne s'articulant pas consciemment à l'objet, ne trouve aucune fonction anaclitique, aucune métabolisation vers l'étayage. Par conséquent, la perte inconnue d'un objet inconscient se traduit directement chez le sujet par la perte de lui-même. Freud nous a laissé une phrase célèbre pour qualifier la dépression : « l'ombre de l'objet est tombée sur le moi ». Cette ombre, la perte du sujet, implique le patient dans sa propre « déstructuration progressive » qui le pousse paradoxalement à parler constamment de lui-même à travers le récit de ses difficultés. Le sujet tente d'exister à travers sa propre dislocation et il le fait « au ralenti », « bradypsychiquement », par le fait que le moi se perd de lui-même, devient le foyer d'une culpabilité et d'une mésestime permanente.
 </t>
@@ -542,10 +556,12 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La bradypsychie peut être un des symptômes de l'hypothyroïdie chez l'adulte.
-La bradypsychie peut aussi être un des symptômes de la triade de encéphalopathie de Wernicke[1].
+La bradypsychie peut aussi être un des symptômes de la triade de encéphalopathie de Wernicke.
 </t>
         </is>
       </c>
